--- a/trunk/php/#docs/WarQuest buildings.xlsx
+++ b/trunk/php/#docs/WarQuest buildings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Bid</t>
   </si>
@@ -137,6 +137,36 @@
   </si>
   <si>
     <t>Cyberspace Warfare</t>
+  </si>
+  <si>
+    <t>Mars Income</t>
+  </si>
+  <si>
+    <t>Mars Defense</t>
+  </si>
+  <si>
+    <t>Mars Energy</t>
+  </si>
+  <si>
+    <t>Mars Discount</t>
+  </si>
+  <si>
+    <t>Mars Maintenance</t>
+  </si>
+  <si>
+    <t>Asteroid Income</t>
+  </si>
+  <si>
+    <t>Asteroid Defence</t>
+  </si>
+  <si>
+    <t>Asteroid Energy</t>
+  </si>
+  <si>
+    <t>Asteroid Discount</t>
+  </si>
+  <si>
+    <t>Asteroid Maintenance</t>
   </si>
 </sst>
 </file>
@@ -284,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +500,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -632,13 +668,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -975,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +1023,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
@@ -1963,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3">
         <v>20000000</v>
@@ -2001,7 +2038,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
         <v>30000000</v>
@@ -2038,8 +2075,8 @@
       <c r="A35">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="3">
         <v>80000000</v>
@@ -2077,11 +2114,11 @@
         <v>59</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4">
         <v>45</v>
@@ -3645,19 +3682,19 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C90" s="3">
-        <v>500000000</v>
+        <v>700000000</v>
       </c>
       <c r="E90">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3675,24 +3712,24 @@
         <v>7</v>
       </c>
       <c r="M90">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C91" s="3">
-        <v>600000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E91">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3710,24 +3747,24 @@
         <v>7</v>
       </c>
       <c r="M91">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C92" s="3">
-        <v>700000000</v>
+        <v>1800000000</v>
       </c>
       <c r="E92">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3749,90 +3786,57 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93">
-        <v>704</v>
-      </c>
-      <c r="C93" s="3">
-        <v>800000000</v>
-      </c>
-      <c r="E93">
-        <v>127</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>600</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>600</v>
-      </c>
-      <c r="L93">
+      <c r="A93" s="4">
+        <v>716</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4">
+        <v>147</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1050</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>600</v>
+      </c>
+      <c r="L93" s="4">
         <v>7</v>
       </c>
-      <c r="M93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94">
-        <v>705</v>
-      </c>
-      <c r="C94" s="3">
-        <v>900000000</v>
-      </c>
-      <c r="E94">
-        <v>128</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>750</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>600</v>
-      </c>
-      <c r="L94">
+      <c r="M93" s="4">
         <v>7</v>
-      </c>
-      <c r="M94">
-        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C95" s="3">
-        <v>1000000000</v>
+        <v>500000000</v>
       </c>
       <c r="E95">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3850,24 +3854,24 @@
         <v>7</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C96" s="3">
-        <v>1200000000</v>
+        <v>800000000</v>
       </c>
       <c r="E96">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3890,19 +3894,19 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C97" s="3">
-        <v>1600000000</v>
+        <v>1200000000</v>
       </c>
       <c r="E97">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3920,15 +3924,15 @@
         <v>7</v>
       </c>
       <c r="M97">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C98" s="3">
-        <v>1800000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E98">
         <v>144</v>
@@ -3937,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3955,94 +3959,61 @@
         <v>7</v>
       </c>
       <c r="M98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4">
+        <v>717</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4">
+        <v>147</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <v>600</v>
+      </c>
+      <c r="L99" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99">
-        <v>710</v>
-      </c>
-      <c r="C99" s="3">
-        <v>2000000000</v>
-      </c>
-      <c r="E99">
-        <v>148</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>1000</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>600</v>
-      </c>
-      <c r="L99">
-        <v>7</v>
-      </c>
-      <c r="M99">
+      <c r="M99" s="4">
         <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100">
-        <v>711</v>
-      </c>
-      <c r="C100" s="3">
-        <v>650000000</v>
-      </c>
-      <c r="E100">
-        <v>106</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>400</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>600</v>
-      </c>
-      <c r="L100">
-        <v>7</v>
-      </c>
-      <c r="M100">
-        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C101" s="3">
-        <v>850000000</v>
+        <v>600000000</v>
       </c>
       <c r="E101">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4060,24 +4031,24 @@
         <v>7</v>
       </c>
       <c r="M101">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C102" s="3">
-        <v>950000000</v>
+        <v>900000000</v>
       </c>
       <c r="E102">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4095,24 +4066,24 @@
         <v>7</v>
       </c>
       <c r="M102">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C103" s="3">
-        <v>1300000000</v>
+        <v>1600000000</v>
       </c>
       <c r="E103">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4130,33 +4101,64 @@
         <v>7</v>
       </c>
       <c r="M103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4">
+        <v>718</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4">
+        <v>147</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <v>600</v>
+      </c>
+      <c r="L104" s="4">
+        <v>7</v>
+      </c>
+      <c r="M104" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="C106" s="3">
-        <v>1000000000</v>
+        <v>650000000</v>
       </c>
       <c r="E106">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4165,33 +4167,33 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107">
-        <v>801</v>
+        <v>712</v>
       </c>
       <c r="C107" s="3">
-        <v>2000000000</v>
+        <v>850000000</v>
       </c>
       <c r="E107">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4200,33 +4202,33 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108">
-        <v>802</v>
+        <v>713</v>
       </c>
       <c r="C108" s="3">
-        <v>4000000000</v>
+        <v>950000000</v>
       </c>
       <c r="E108">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4235,33 +4237,33 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="C109" s="3">
-        <v>8000000000</v>
+        <v>1300000000</v>
       </c>
       <c r="E109">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4270,129 +4272,67 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110">
-        <v>804</v>
-      </c>
-      <c r="C110" s="3">
-        <v>16000000000</v>
-      </c>
-      <c r="E110">
-        <v>118</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>5</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <v>8</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111">
-        <v>805</v>
-      </c>
-      <c r="C111" s="3">
-        <v>32000000000</v>
-      </c>
-      <c r="E111">
-        <v>122</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>6</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>8</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
+      <c r="A110" s="4">
+        <v>719</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4">
+        <v>147</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <v>600</v>
+      </c>
+      <c r="L110" s="4">
+        <v>7</v>
+      </c>
+      <c r="M110" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112">
-        <v>806</v>
-      </c>
-      <c r="C112" s="3">
-        <v>64000000000</v>
-      </c>
-      <c r="E112">
-        <v>125</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>7</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112">
-        <v>8</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
+      <c r="A112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C113" s="3">
-        <v>80000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E113">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4401,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4421,13 +4361,13 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C114" s="3">
-        <v>100000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E114">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4436,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4456,13 +4396,13 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C115" s="3">
-        <v>200000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E115">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4471,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4491,13 +4431,13 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C116" s="3">
-        <v>400000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="E116">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4506,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4526,13 +4466,13 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C117" s="3">
-        <v>800000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="E117">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4541,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4559,21 +4499,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>805</v>
+      </c>
+      <c r="C118" s="3">
+        <v>32000000000</v>
+      </c>
+      <c r="E118">
+        <v>122</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>8</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" s="1"/>
+      <c r="A119">
+        <v>806</v>
+      </c>
+      <c r="C119" s="3">
+        <v>64000000000</v>
+      </c>
+      <c r="E119">
+        <v>125</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>7</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>8</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120">
-        <v>900</v>
+        <v>807</v>
       </c>
       <c r="C120" s="3">
-        <v>100000000</v>
+        <v>80000000000</v>
       </c>
       <c r="E120">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4582,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -4594,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -4602,13 +4606,13 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="C121" s="3">
-        <v>500000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E121">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4617,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -4629,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="L121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -4637,13 +4641,13 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122">
-        <v>902</v>
+        <v>809</v>
       </c>
       <c r="C122" s="3">
-        <v>1000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="E122">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4652,10 +4656,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -4664,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="L122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -4672,13 +4676,13 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123">
-        <v>903</v>
+        <v>810</v>
       </c>
       <c r="C123" s="3">
-        <v>2000000000</v>
+        <v>400000000000</v>
       </c>
       <c r="E123">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -4687,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -4699,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -4707,13 +4711,13 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124">
-        <v>904</v>
+        <v>811</v>
       </c>
       <c r="C124" s="3">
-        <v>4000000000</v>
+        <v>800000000000</v>
       </c>
       <c r="E124">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4722,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -4734,91 +4738,27 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125">
-        <v>905</v>
-      </c>
-      <c r="C125" s="3">
-        <v>8000000000</v>
-      </c>
-      <c r="E125">
-        <v>117</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>6</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125">
-        <v>9</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-    </row>
     <row r="126" spans="1:13">
-      <c r="A126">
-        <v>906</v>
-      </c>
-      <c r="C126" s="3">
-        <v>16000000000</v>
-      </c>
-      <c r="E126">
-        <v>122</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>8</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126">
-        <v>9</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
+      <c r="A126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C127" s="3">
-        <v>32000000000</v>
+        <v>100000000</v>
       </c>
       <c r="E127">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4830,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -4847,13 +4787,13 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C128" s="3">
-        <v>64000000000</v>
+        <v>500000000</v>
       </c>
       <c r="E128">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4865,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -4882,13 +4822,13 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C129" s="3">
-        <v>128000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E129">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4900,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -4917,13 +4857,13 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C130" s="3">
-        <v>256000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E130">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4935,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -4952,13 +4892,13 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C131" s="3">
-        <v>512000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E131">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4970,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -4985,21 +4925,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>905</v>
+      </c>
+      <c r="C132" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="E132">
+        <v>117</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>6</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>9</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="1"/>
+      <c r="A133">
+        <v>906</v>
+      </c>
+      <c r="C133" s="3">
+        <v>16000000000</v>
+      </c>
+      <c r="E133">
+        <v>122</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>8</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>9</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="C134" s="3">
-        <v>1250000000</v>
+        <v>32000000000</v>
       </c>
       <c r="E134">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5011,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>1</v>
       </c>
       <c r="L134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -5028,13 +5032,13 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135">
-        <v>1001</v>
+        <v>908</v>
       </c>
       <c r="C135" s="3">
-        <v>2500000000</v>
+        <v>64000000000</v>
       </c>
       <c r="E135">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5046,16 +5050,16 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>1</v>
       </c>
       <c r="L135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -5063,13 +5067,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136">
-        <v>1002</v>
+        <v>909</v>
       </c>
       <c r="C136" s="3">
-        <v>5000000000</v>
+        <v>128000000000</v>
       </c>
       <c r="E136">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -5081,16 +5085,16 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>1</v>
       </c>
       <c r="L136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -5098,13 +5102,13 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137">
-        <v>1003</v>
+        <v>910</v>
       </c>
       <c r="C137" s="3">
-        <v>10000000000</v>
+        <v>256000000000</v>
       </c>
       <c r="E137">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5116,16 +5120,16 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>1</v>
       </c>
       <c r="L137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -5133,13 +5137,13 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138">
-        <v>1004</v>
+        <v>911</v>
       </c>
       <c r="C138" s="3">
-        <v>20000000000</v>
+        <v>512000000000</v>
       </c>
       <c r="E138">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5151,100 +5155,36 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J138">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>1</v>
       </c>
       <c r="L138">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
-      <c r="A139">
-        <v>1005</v>
-      </c>
-      <c r="C139" s="3">
-        <v>40000000000</v>
-      </c>
-      <c r="E139">
-        <v>123</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>8</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139">
-        <v>10</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-    </row>
     <row r="140" spans="1:13">
-      <c r="A140">
-        <v>1006</v>
-      </c>
-      <c r="C140" s="3">
-        <v>80000000000</v>
-      </c>
-      <c r="E140">
-        <v>128</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>10</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140">
-        <v>10</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
+      <c r="A140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:13">
       <c r="A141">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C141" s="3">
-        <v>160000000000</v>
+        <v>1250000000</v>
       </c>
       <c r="E141">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -5259,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -5273,13 +5213,13 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="C142" s="3">
-        <v>320000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="E142">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -5294,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -5308,13 +5248,13 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C143" s="3">
-        <v>640000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E143">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -5329,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -5343,16 +5283,16 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144">
-        <v>1100</v>
+        <v>1003</v>
       </c>
       <c r="C144" s="3">
-        <v>40000000</v>
+        <v>10000000000</v>
       </c>
       <c r="E144">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F144">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -5364,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K144">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -5378,16 +5318,16 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145">
-        <v>1101</v>
+        <v>1004</v>
       </c>
       <c r="C145" s="3">
-        <v>80000000</v>
+        <v>20000000000</v>
       </c>
       <c r="E145">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F145">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5399,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K145">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L145">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -5413,16 +5353,16 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146">
-        <v>1102</v>
+        <v>1005</v>
       </c>
       <c r="C146" s="3">
-        <v>160000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E146">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F146">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5434,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K146">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -5448,16 +5388,16 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147">
-        <v>1103</v>
+        <v>1006</v>
       </c>
       <c r="C147" s="3">
-        <v>400000000</v>
+        <v>80000000000</v>
       </c>
       <c r="E147">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F147">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5469,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K147">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -5483,16 +5423,16 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148">
-        <v>1104</v>
+        <v>1007</v>
       </c>
       <c r="C148" s="3">
-        <v>800000000</v>
+        <v>160000000000</v>
       </c>
       <c r="E148">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F148">
-        <v>550000</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5504,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K148">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -5518,16 +5458,16 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149">
-        <v>1105</v>
+        <v>1008</v>
       </c>
       <c r="C149" s="3">
-        <v>1200000000</v>
+        <v>320000000000</v>
       </c>
       <c r="E149">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F149">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5539,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K149">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -5553,16 +5493,16 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150">
-        <v>1106</v>
+        <v>1009</v>
       </c>
       <c r="C150" s="3">
-        <v>1500000000</v>
+        <v>640000000000</v>
       </c>
       <c r="E150">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="F150">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5574,100 +5514,35 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K150">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
-      <c r="A151">
-        <v>1107</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1800000000</v>
-      </c>
-      <c r="E151">
-        <v>186</v>
-      </c>
-      <c r="F151">
-        <v>1000000</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>600</v>
-      </c>
-      <c r="L151">
-        <v>11</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-    </row>
     <row r="152" spans="1:13">
-      <c r="A152">
-        <v>1108</v>
-      </c>
-      <c r="C152" s="3">
-        <v>2000000000</v>
-      </c>
-      <c r="E152">
-        <v>191</v>
-      </c>
-      <c r="F152">
-        <v>1250000</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>600</v>
-      </c>
-      <c r="L152">
-        <v>11</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
+      <c r="A152" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="C153" s="3">
-        <v>2200000000</v>
+        <v>40000000</v>
       </c>
       <c r="E153">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F153">
-        <v>1500000</v>
+        <v>100000</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -5691,21 +5566,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="154" spans="1:13">
+      <c r="A154">
+        <v>1101</v>
+      </c>
+      <c r="C154" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="E154">
+        <v>157</v>
+      </c>
+      <c r="F154">
+        <v>200000</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>600</v>
+      </c>
+      <c r="L154">
+        <v>11</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
     <row r="155" spans="1:13">
       <c r="A155">
-        <v>1200</v>
+        <v>1102</v>
       </c>
       <c r="C155" s="3">
-        <v>400000000</v>
+        <v>160000000</v>
       </c>
       <c r="E155">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G155">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5720,27 +5630,27 @@
         <v>600</v>
       </c>
       <c r="L155">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M155">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156">
-        <v>1201</v>
+        <v>1103</v>
       </c>
       <c r="C156" s="3">
-        <v>500000000</v>
+        <v>400000000</v>
       </c>
       <c r="E156">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="G156">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5755,27 +5665,27 @@
         <v>600</v>
       </c>
       <c r="L156">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M156">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157">
-        <v>1202</v>
+        <v>1104</v>
       </c>
       <c r="C157" s="3">
-        <v>600000000</v>
+        <v>800000000</v>
       </c>
       <c r="E157">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="G157">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5790,27 +5700,27 @@
         <v>600</v>
       </c>
       <c r="L157">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M157">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158">
-        <v>1203</v>
+        <v>1105</v>
       </c>
       <c r="C158" s="3">
-        <v>700000000</v>
+        <v>1200000000</v>
       </c>
       <c r="E158">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G158">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5825,27 +5735,27 @@
         <v>600</v>
       </c>
       <c r="L158">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M158">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159">
-        <v>1204</v>
+        <v>1106</v>
       </c>
       <c r="C159" s="3">
-        <v>800000000</v>
+        <v>1500000000</v>
       </c>
       <c r="E159">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="G159">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5860,27 +5770,27 @@
         <v>600</v>
       </c>
       <c r="L159">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M159">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160">
-        <v>1205</v>
+        <v>1107</v>
       </c>
       <c r="C160" s="3">
-        <v>900000000</v>
+        <v>1800000000</v>
       </c>
       <c r="E160">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G160">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5895,27 +5805,27 @@
         <v>600</v>
       </c>
       <c r="L160">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M160">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161">
-        <v>1206</v>
+        <v>1108</v>
       </c>
       <c r="C161" s="3">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E161">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="G161">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5930,27 +5840,27 @@
         <v>600</v>
       </c>
       <c r="L161">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M161">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162">
-        <v>1207</v>
+        <v>1109</v>
       </c>
       <c r="C162" s="3">
-        <v>1300000000</v>
+        <v>2200000000</v>
       </c>
       <c r="E162">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="G162">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5965,97 +5875,32 @@
         <v>600</v>
       </c>
       <c r="L162">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M162">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163">
-        <v>1208</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1600000000</v>
-      </c>
-      <c r="E163">
-        <v>192</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>900</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>600</v>
-      </c>
-      <c r="L163">
-        <v>12</v>
-      </c>
-      <c r="M163">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164">
-        <v>1209</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1800000000</v>
-      </c>
-      <c r="E164">
-        <v>197</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>950</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>600</v>
-      </c>
-      <c r="L164">
-        <v>12</v>
-      </c>
-      <c r="M164">
-        <v>13</v>
+      <c r="A164" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="C165" s="3">
-        <v>2000000000</v>
+        <v>400000000</v>
       </c>
       <c r="E165">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -6073,27 +5918,62 @@
         <v>12</v>
       </c>
       <c r="M165">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166">
+        <v>1203</v>
+      </c>
+      <c r="C166" s="3">
+        <v>700000000</v>
+      </c>
+      <c r="E166">
+        <v>167</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>550</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>600</v>
+      </c>
+      <c r="L166">
+        <v>12</v>
+      </c>
+      <c r="M166">
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167">
-        <v>1300</v>
+        <v>1209</v>
       </c>
       <c r="C167" s="3">
-        <v>1000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="E167">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6102,103 +5982,70 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L167">
+        <v>12</v>
+      </c>
+      <c r="M167">
         <v>13</v>
       </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168">
-        <v>1301</v>
-      </c>
-      <c r="C168" s="3">
-        <v>2000000000</v>
-      </c>
-      <c r="E168">
-        <v>158</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>2</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>1</v>
-      </c>
-      <c r="L168">
+      <c r="A168" s="4">
+        <v>1211</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5">
+        <v>10</v>
+      </c>
+      <c r="E168" s="4">
+        <v>198</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1050</v>
+      </c>
+      <c r="H168" s="4">
+        <v>0</v>
+      </c>
+      <c r="I168" s="4">
+        <v>0</v>
+      </c>
+      <c r="J168" s="4">
+        <v>0</v>
+      </c>
+      <c r="K168" s="4">
+        <v>600</v>
+      </c>
+      <c r="L168" s="4">
+        <v>12</v>
+      </c>
+      <c r="M168" s="4">
         <v>13</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169">
-        <v>1302</v>
-      </c>
-      <c r="C169" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="E169">
-        <v>163</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>3</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169">
-        <v>13</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170">
-        <v>1303</v>
+        <v>1201</v>
       </c>
       <c r="C170" s="3">
-        <v>8000000000</v>
+        <v>500000000</v>
       </c>
       <c r="E170">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6207,33 +6054,33 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L170">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171">
-        <v>1304</v>
+        <v>1204</v>
       </c>
       <c r="C171" s="3">
-        <v>16000000000</v>
+        <v>800000000</v>
       </c>
       <c r="E171">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -6242,33 +6089,33 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L171">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172">
-        <v>1305</v>
+        <v>1207</v>
       </c>
       <c r="C172" s="3">
-        <v>32000000000</v>
+        <v>1300000000</v>
       </c>
       <c r="E172">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="H172">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6277,103 +6124,70 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L172">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173">
-        <v>1306</v>
-      </c>
-      <c r="C173" s="3">
-        <v>64000000000</v>
-      </c>
-      <c r="E173">
-        <v>183</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>7</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173">
-        <v>13</v>
-      </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174">
-        <v>1307</v>
-      </c>
-      <c r="C174" s="3">
-        <v>80000000000</v>
-      </c>
-      <c r="E174">
-        <v>188</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>8</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174">
-        <v>13</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
+      <c r="A173" s="4">
+        <v>1212</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5">
+        <v>10</v>
+      </c>
+      <c r="E173" s="4">
+        <v>198</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>950</v>
+      </c>
+      <c r="H173" s="4">
+        <v>0</v>
+      </c>
+      <c r="I173" s="4">
+        <v>0</v>
+      </c>
+      <c r="J173" s="4">
+        <v>0</v>
+      </c>
+      <c r="K173" s="4">
+        <v>600</v>
+      </c>
+      <c r="L173" s="4">
+        <v>12</v>
+      </c>
+      <c r="M173" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175">
-        <v>1308</v>
+        <v>1202</v>
       </c>
       <c r="C175" s="3">
-        <v>100000000000</v>
+        <v>600000000</v>
       </c>
       <c r="E175">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H175">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -6382,304 +6196,243 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L175">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176">
-        <v>1309</v>
+        <v>1205</v>
       </c>
       <c r="C176" s="3">
-        <v>200000000000</v>
+        <v>900000000</v>
       </c>
       <c r="E176">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>600</v>
+      </c>
+      <c r="L176">
+        <v>12</v>
+      </c>
+      <c r="M176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177">
+        <v>1208</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1600000000</v>
+      </c>
+      <c r="E177">
+        <v>192</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>900</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>600</v>
+      </c>
+      <c r="L177">
+        <v>12</v>
+      </c>
+      <c r="M177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="4">
+        <v>1213</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5">
         <v>10</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176">
-        <v>13</v>
-      </c>
-      <c r="M176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178">
-        <v>1400</v>
-      </c>
-      <c r="C178" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="E178">
-        <v>154</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178">
-        <v>14</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179">
-        <v>1401</v>
-      </c>
-      <c r="C179" s="3">
-        <v>500000000</v>
-      </c>
-      <c r="E179">
-        <v>157</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>2</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-      <c r="L179">
-        <v>14</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
+      <c r="E178" s="4">
+        <v>198</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H178" s="4">
+        <v>0</v>
+      </c>
+      <c r="I178" s="4">
+        <v>0</v>
+      </c>
+      <c r="J178" s="4">
+        <v>0</v>
+      </c>
+      <c r="K178" s="4">
+        <v>600</v>
+      </c>
+      <c r="L178" s="4">
+        <v>12</v>
+      </c>
+      <c r="M178" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180">
-        <v>1402</v>
+        <v>1206</v>
       </c>
       <c r="C180" s="3">
         <v>1000000000</v>
       </c>
       <c r="E180">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L180">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181">
-        <v>1403</v>
+        <v>1210</v>
       </c>
       <c r="C181" s="3">
         <v>2000000000</v>
       </c>
       <c r="E181">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L181">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182">
-        <v>1404</v>
-      </c>
-      <c r="C182" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="E182">
-        <v>172</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>5</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182">
-        <v>14</v>
-      </c>
-      <c r="M182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183">
-        <v>1405</v>
-      </c>
-      <c r="C183" s="3">
-        <v>8000000000</v>
-      </c>
-      <c r="E183">
-        <v>177</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>6</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183">
-        <v>14</v>
-      </c>
-      <c r="M183">
-        <v>0</v>
+      <c r="A182" s="4">
+        <v>1214</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4">
+        <v>198</v>
+      </c>
+      <c r="F182" s="4">
+        <v>0</v>
+      </c>
+      <c r="G182" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H182" s="4">
+        <v>0</v>
+      </c>
+      <c r="I182" s="4">
+        <v>0</v>
+      </c>
+      <c r="J182" s="4">
+        <v>0</v>
+      </c>
+      <c r="K182" s="4">
+        <v>600</v>
+      </c>
+      <c r="L182" s="4">
+        <v>12</v>
+      </c>
+      <c r="M182" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184">
-        <v>1406</v>
-      </c>
-      <c r="C184" s="3">
-        <v>16000000000</v>
-      </c>
-      <c r="E184">
-        <v>182</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>8</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184">
-        <v>14</v>
-      </c>
-      <c r="M184">
-        <v>0</v>
+      <c r="A184" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185">
-        <v>1407</v>
+        <v>1300</v>
       </c>
       <c r="C185" s="3">
-        <v>32000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E185">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -6688,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -6700,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="L185">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -6708,13 +6461,13 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186">
-        <v>1408</v>
+        <v>1301</v>
       </c>
       <c r="C186" s="3">
-        <v>64000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E186">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6723,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -6735,21 +6488,56 @@
         <v>1</v>
       </c>
       <c r="L186">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187">
+        <v>1302</v>
+      </c>
+      <c r="C187" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="E187">
+        <v>163</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>13</v>
+      </c>
+      <c r="M187">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188">
-        <v>1500</v>
+        <v>1303</v>
       </c>
       <c r="C188" s="3">
-        <v>1250000000</v>
+        <v>8000000000</v>
       </c>
       <c r="E188">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -6758,19 +6546,19 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <v>1</v>
       </c>
       <c r="L188">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -6778,13 +6566,13 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189">
-        <v>1501</v>
+        <v>1304</v>
       </c>
       <c r="C189" s="3">
-        <v>2500000000</v>
+        <v>16000000000</v>
       </c>
       <c r="E189">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -6793,19 +6581,19 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>1</v>
       </c>
       <c r="L189">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -6813,13 +6601,13 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190">
-        <v>1502</v>
+        <v>1305</v>
       </c>
       <c r="C190" s="3">
-        <v>5000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="E190">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6828,19 +6616,19 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
       <c r="L190">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -6848,13 +6636,13 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191">
-        <v>1503</v>
+        <v>1306</v>
       </c>
       <c r="C191" s="3">
-        <v>10000000000</v>
+        <v>64000000000</v>
       </c>
       <c r="E191">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -6863,19 +6651,19 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K191">
         <v>1</v>
       </c>
       <c r="L191">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -6883,13 +6671,13 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192">
-        <v>1504</v>
+        <v>1307</v>
       </c>
       <c r="C192" s="3">
-        <v>20000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="E192">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6898,19 +6686,19 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>1</v>
       </c>
       <c r="L192">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -6918,13 +6706,13 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193">
-        <v>1505</v>
+        <v>1308</v>
       </c>
       <c r="C193" s="3">
-        <v>40000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E193">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6933,19 +6721,19 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
       <c r="L193">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -6953,13 +6741,13 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194">
-        <v>1506</v>
+        <v>1309</v>
       </c>
       <c r="C194" s="3">
-        <v>80000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="E194">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6968,103 +6756,38 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>1</v>
       </c>
       <c r="L194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
-      <c r="A195">
-        <v>1507</v>
-      </c>
-      <c r="C195" s="3">
-        <v>160000000000</v>
-      </c>
-      <c r="E195">
-        <v>187</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>12</v>
-      </c>
-      <c r="K195">
-        <v>1</v>
-      </c>
-      <c r="L195">
-        <v>15</v>
-      </c>
-      <c r="M195">
-        <v>0</v>
-      </c>
-    </row>
     <row r="196" spans="1:13">
-      <c r="A196">
-        <v>1508</v>
-      </c>
-      <c r="C196" s="3">
-        <v>320000000000</v>
-      </c>
-      <c r="E196">
-        <v>192</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>14</v>
-      </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196">
-        <v>15</v>
-      </c>
-      <c r="M196">
-        <v>0</v>
+      <c r="A196" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197">
-        <v>1509</v>
+        <v>1400</v>
       </c>
       <c r="C197" s="3">
-        <v>640000000000</v>
+        <v>100000000</v>
       </c>
       <c r="E197">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -7076,33 +6799,68 @@
         <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>1</v>
       </c>
       <c r="L197">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198">
+        <v>1401</v>
+      </c>
+      <c r="C198" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="E198">
+        <v>157</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>14</v>
+      </c>
+      <c r="M198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199">
-        <v>1600</v>
+        <v>1402</v>
       </c>
       <c r="C199" s="3">
-        <v>500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E199">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="F199">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7111,16 +6869,16 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L199">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -7128,16 +6886,16 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200">
-        <v>1601</v>
+        <v>1403</v>
       </c>
       <c r="C200" s="3">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E200">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="F200">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7146,16 +6904,16 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L200">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -7163,16 +6921,16 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201">
-        <v>1602</v>
+        <v>1404</v>
       </c>
       <c r="C201" s="3">
-        <v>1500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E201">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F201">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7181,16 +6939,16 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L201">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -7198,16 +6956,16 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202">
-        <v>1603</v>
+        <v>1405</v>
       </c>
       <c r="C202" s="3">
-        <v>2000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="E202">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F202">
-        <v>1250000</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -7216,16 +6974,16 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L202">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -7233,16 +6991,16 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203">
-        <v>1604</v>
+        <v>1406</v>
       </c>
       <c r="C203" s="3">
-        <v>2500000000</v>
+        <v>16000000000</v>
       </c>
       <c r="E203">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F203">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7251,16 +7009,16 @@
         <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L203">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -7268,16 +7026,16 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204">
-        <v>1605</v>
+        <v>1407</v>
       </c>
       <c r="C204" s="3">
-        <v>3000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="E204">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="F204">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7286,16 +7044,16 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L204">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -7303,16 +7061,16 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205">
-        <v>1606</v>
+        <v>1408</v>
       </c>
       <c r="C205" s="3">
-        <v>3500000000</v>
+        <v>64000000000</v>
       </c>
       <c r="E205">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F205">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7321,103 +7079,38 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L205">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
-      <c r="A206">
-        <v>1607</v>
-      </c>
-      <c r="C206" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="E206">
-        <v>228</v>
-      </c>
-      <c r="F206">
-        <v>3500000</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206">
-        <v>600</v>
-      </c>
-      <c r="L206">
-        <v>16</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-    </row>
     <row r="207" spans="1:13">
-      <c r="A207">
-        <v>1608</v>
-      </c>
-      <c r="C207" s="3">
-        <v>4500000000</v>
-      </c>
-      <c r="E207">
-        <v>232</v>
-      </c>
-      <c r="F207">
-        <v>4000000</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-      <c r="K207">
-        <v>600</v>
-      </c>
-      <c r="L207">
-        <v>16</v>
-      </c>
-      <c r="M207">
-        <v>0</v>
+      <c r="A207" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208">
-        <v>1609</v>
+        <v>1500</v>
       </c>
       <c r="C208" s="3">
-        <v>5000000000</v>
+        <v>1250000000</v>
       </c>
       <c r="E208">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="F208">
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7429,33 +7122,68 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L208">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209">
+        <v>1501</v>
+      </c>
+      <c r="C209" s="3">
+        <v>2500000000</v>
+      </c>
+      <c r="E209">
+        <v>158</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>15</v>
+      </c>
+      <c r="M209">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210">
-        <v>1700</v>
+        <v>1502</v>
       </c>
       <c r="C210" s="3">
-        <v>1000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E210">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -7464,33 +7192,33 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K210">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L210">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M210">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211">
-        <v>1701</v>
+        <v>1503</v>
       </c>
       <c r="C211" s="3">
-        <v>2000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="E211">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -7499,33 +7227,33 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K211">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L211">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M211">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212">
-        <v>1702</v>
+        <v>1504</v>
       </c>
       <c r="C212" s="3">
-        <v>3000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="E212">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -7534,33 +7262,33 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K212">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L212">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M212">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213">
-        <v>1703</v>
+        <v>1505</v>
       </c>
       <c r="C213" s="3">
-        <v>4000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E213">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -7569,33 +7297,33 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K213">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L213">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M213">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214">
-        <v>1704</v>
+        <v>1506</v>
       </c>
       <c r="C214" s="3">
-        <v>5000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="E214">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -7604,33 +7332,33 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K214">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L214">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M214">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215">
-        <v>1705</v>
+        <v>1507</v>
       </c>
       <c r="C215" s="3">
-        <v>6000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="E215">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -7639,33 +7367,33 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K215">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L215">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M215">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216">
-        <v>1706</v>
+        <v>1508</v>
       </c>
       <c r="C216" s="3">
-        <v>7000000000</v>
+        <v>320000000000</v>
       </c>
       <c r="E216">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -7674,33 +7402,33 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K216">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L216">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M216">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217">
-        <v>1707</v>
+        <v>1509</v>
       </c>
       <c r="C217" s="3">
-        <v>8000000000</v>
+        <v>640000000000</v>
       </c>
       <c r="E217">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -7709,106 +7437,76 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K217">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="L217">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M217">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218">
-        <v>1708</v>
-      </c>
-      <c r="C218" s="3">
-        <v>9000000000</v>
-      </c>
-      <c r="E218">
-        <v>233</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>1000</v>
-      </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
-        <v>600</v>
-      </c>
-      <c r="L218">
-        <v>17</v>
-      </c>
-      <c r="M218">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219">
-        <v>1709</v>
-      </c>
-      <c r="C219" s="3">
-        <v>9600000000</v>
-      </c>
-      <c r="E219">
-        <v>236</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <v>1200</v>
-      </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>600</v>
-      </c>
-      <c r="L219">
-        <v>17</v>
-      </c>
-      <c r="M219">
-        <v>20</v>
+      <c r="A219" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220">
+        <v>1600</v>
+      </c>
+      <c r="C220" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="E220">
+        <v>201</v>
+      </c>
+      <c r="F220">
+        <v>700000</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>600</v>
+      </c>
+      <c r="L220">
+        <v>16</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221">
-        <v>1800</v>
+        <v>1601</v>
       </c>
       <c r="C221" s="3">
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E221">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -7817,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L221">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -7828,22 +7526,22 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222">
-        <v>1801</v>
+        <v>1602</v>
       </c>
       <c r="C222" s="3">
-        <v>20000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="E222">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7852,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L222">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -7863,22 +7561,22 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223">
-        <v>1802</v>
+        <v>1603</v>
       </c>
       <c r="C223" s="3">
-        <v>40000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E223">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -7887,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L223">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -7898,22 +7596,22 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224">
-        <v>1803</v>
+        <v>1604</v>
       </c>
       <c r="C224" s="3">
-        <v>80000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="E224">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -7922,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L224">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -7933,22 +7631,22 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225">
-        <v>1804</v>
+        <v>1605</v>
       </c>
       <c r="C225" s="3">
-        <v>100000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="E225">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -7957,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="K225">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L225">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -7968,22 +7666,22 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226">
-        <v>1805</v>
+        <v>1606</v>
       </c>
       <c r="C226" s="3">
-        <v>200000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="E226">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -7992,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="K226">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L226">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -8003,22 +7701,22 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227">
-        <v>1806</v>
+        <v>1607</v>
       </c>
       <c r="C227" s="3">
-        <v>300000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E227">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -8027,10 +7725,10 @@
         <v>0</v>
       </c>
       <c r="K227">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L227">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -8038,22 +7736,22 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228">
-        <v>1807</v>
+        <v>1608</v>
       </c>
       <c r="C228" s="3">
-        <v>400000000000</v>
+        <v>4500000000</v>
       </c>
       <c r="E228">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8062,10 +7760,10 @@
         <v>0</v>
       </c>
       <c r="K228">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L228">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -8073,22 +7771,22 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229">
-        <v>1808</v>
+        <v>1609</v>
       </c>
       <c r="C229" s="3">
-        <v>500000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E229">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8097,240 +7795,214 @@
         <v>0</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L229">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
-      <c r="A230">
-        <v>1809</v>
-      </c>
-      <c r="C230" s="3">
-        <v>600000000000</v>
-      </c>
-      <c r="E230">
-        <v>245</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <v>10</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
-      <c r="J230">
-        <v>0</v>
-      </c>
-      <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230">
-        <v>18</v>
-      </c>
-      <c r="M230">
-        <v>0</v>
+    <row r="231" spans="1:13">
+      <c r="A231" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C232" s="3">
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E232">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J232">
         <v>0</v>
       </c>
       <c r="K232">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L232">
+        <v>17</v>
+      </c>
+      <c r="M232">
         <v>19</v>
-      </c>
-      <c r="M232">
-        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233">
-        <v>1901</v>
+        <v>1704</v>
       </c>
       <c r="C233" s="3">
-        <v>25000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E233">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
       <c r="I233">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
       <c r="K233">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L233">
+        <v>17</v>
+      </c>
+      <c r="M233">
         <v>19</v>
-      </c>
-      <c r="M233">
-        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234">
-        <v>1902</v>
+        <v>1708</v>
       </c>
       <c r="C234" s="3">
-        <v>50000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="E234">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J234">
         <v>0</v>
       </c>
       <c r="K234">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L234">
+        <v>17</v>
+      </c>
+      <c r="M234">
         <v>19</v>
       </c>
-      <c r="M234">
-        <v>0</v>
-      </c>
     </row>
     <row r="235" spans="1:13">
-      <c r="A235">
-        <v>1903</v>
-      </c>
-      <c r="C235" s="3">
-        <v>75000000000</v>
-      </c>
-      <c r="E235">
-        <v>220</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>0</v>
-      </c>
-      <c r="I235">
+      <c r="A235" s="4">
+        <v>1710</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5">
+        <v>0</v>
+      </c>
+      <c r="D235" s="5">
+        <v>10</v>
+      </c>
+      <c r="E235" s="4">
+        <v>242</v>
+      </c>
+      <c r="F235" s="4">
+        <v>0</v>
+      </c>
+      <c r="G235" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H235" s="4">
+        <v>0</v>
+      </c>
+      <c r="I235" s="4">
+        <v>0</v>
+      </c>
+      <c r="J235" s="4">
+        <v>0</v>
+      </c>
+      <c r="K235" s="4">
+        <v>600</v>
+      </c>
+      <c r="L235" s="4">
+        <v>17</v>
+      </c>
+      <c r="M235" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237">
+        <v>1701</v>
+      </c>
+      <c r="C237" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="E237">
+        <v>207</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>450</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>600</v>
+      </c>
+      <c r="L237">
+        <v>17</v>
+      </c>
+      <c r="M237">
         <v>20</v>
-      </c>
-      <c r="J235">
-        <v>0</v>
-      </c>
-      <c r="K235">
-        <v>1</v>
-      </c>
-      <c r="L235">
-        <v>19</v>
-      </c>
-      <c r="M235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236">
-        <v>1904</v>
-      </c>
-      <c r="C236" s="3">
-        <v>100000000000</v>
-      </c>
-      <c r="E236">
-        <v>230</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
-        <v>25</v>
-      </c>
-      <c r="J236">
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <v>1</v>
-      </c>
-      <c r="L236">
-        <v>19</v>
-      </c>
-      <c r="M236">
-        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238">
-        <v>2000</v>
+        <v>1705</v>
       </c>
       <c r="C238" s="3">
-        <v>10000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="E238">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -8339,33 +8011,33 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L238">
+        <v>17</v>
+      </c>
+      <c r="M238">
         <v>20</v>
-      </c>
-      <c r="M238">
-        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239">
-        <v>2001</v>
+        <v>1709</v>
       </c>
       <c r="C239" s="3">
-        <v>25000000000</v>
+        <v>9600000000</v>
       </c>
       <c r="E239">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -8374,120 +8046,987 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="L239">
+        <v>17</v>
+      </c>
+      <c r="M239">
         <v>20</v>
       </c>
-      <c r="M239">
-        <v>0</v>
-      </c>
     </row>
     <row r="240" spans="1:13">
-      <c r="A240">
-        <v>2002</v>
-      </c>
-      <c r="C240" s="3">
-        <v>50000000000</v>
-      </c>
-      <c r="E240">
-        <v>224</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240">
-        <v>15</v>
-      </c>
-      <c r="K240">
-        <v>1</v>
-      </c>
-      <c r="L240">
+      <c r="A240" s="4">
+        <v>1711</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5">
+        <v>0</v>
+      </c>
+      <c r="D240" s="5">
+        <v>10</v>
+      </c>
+      <c r="E240" s="4">
+        <v>242</v>
+      </c>
+      <c r="F240" s="4">
+        <v>0</v>
+      </c>
+      <c r="G240" s="4">
+        <v>1300</v>
+      </c>
+      <c r="H240" s="4">
+        <v>0</v>
+      </c>
+      <c r="I240" s="4">
+        <v>0</v>
+      </c>
+      <c r="J240" s="4">
+        <v>0</v>
+      </c>
+      <c r="K240" s="4">
+        <v>600</v>
+      </c>
+      <c r="L240" s="4">
+        <v>17</v>
+      </c>
+      <c r="M240" s="4">
         <v>20</v>
-      </c>
-      <c r="M240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13">
-      <c r="A241">
-        <v>2003</v>
-      </c>
-      <c r="C241" s="3">
-        <v>75000000000</v>
-      </c>
-      <c r="E241">
-        <v>229</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>0</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-      <c r="J241">
-        <v>20</v>
-      </c>
-      <c r="K241">
-        <v>1</v>
-      </c>
-      <c r="L241">
-        <v>20</v>
-      </c>
-      <c r="M241">
-        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242">
+        <v>1702</v>
+      </c>
+      <c r="C242" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="E242">
+        <v>211</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>500</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>600</v>
+      </c>
+      <c r="L242">
+        <v>17</v>
+      </c>
+      <c r="M242">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243">
+        <v>1706</v>
+      </c>
+      <c r="C243" s="3">
+        <v>7000000000</v>
+      </c>
+      <c r="E243">
+        <v>226</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>800</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>600</v>
+      </c>
+      <c r="L243">
+        <v>17</v>
+      </c>
+      <c r="M243">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="4">
+        <v>1712</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5">
+        <v>0</v>
+      </c>
+      <c r="D244" s="5">
+        <v>10</v>
+      </c>
+      <c r="E244" s="4">
+        <v>242</v>
+      </c>
+      <c r="F244" s="4">
+        <v>0</v>
+      </c>
+      <c r="G244" s="4">
+        <v>900</v>
+      </c>
+      <c r="H244" s="4">
+        <v>0</v>
+      </c>
+      <c r="I244" s="4">
+        <v>0</v>
+      </c>
+      <c r="J244" s="4">
+        <v>0</v>
+      </c>
+      <c r="K244" s="4">
+        <v>600</v>
+      </c>
+      <c r="L244" s="4">
+        <v>17</v>
+      </c>
+      <c r="M244" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246">
+        <v>1703</v>
+      </c>
+      <c r="C246" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="E246">
+        <v>216</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>550</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>600</v>
+      </c>
+      <c r="L246">
+        <v>17</v>
+      </c>
+      <c r="M246">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247">
+        <v>1707</v>
+      </c>
+      <c r="C247" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="E247">
+        <v>230</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>900</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>600</v>
+      </c>
+      <c r="L247">
+        <v>17</v>
+      </c>
+      <c r="M247">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="4">
+        <v>1713</v>
+      </c>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5">
+        <v>0</v>
+      </c>
+      <c r="D248" s="5">
+        <v>10</v>
+      </c>
+      <c r="E248" s="4">
+        <v>242</v>
+      </c>
+      <c r="F248" s="4">
+        <v>0</v>
+      </c>
+      <c r="G248" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H248" s="4">
+        <v>0</v>
+      </c>
+      <c r="I248" s="4">
+        <v>0</v>
+      </c>
+      <c r="J248" s="4">
+        <v>0</v>
+      </c>
+      <c r="K248" s="4">
+        <v>600</v>
+      </c>
+      <c r="L248" s="4">
+        <v>17</v>
+      </c>
+      <c r="M248" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251">
+        <v>1800</v>
+      </c>
+      <c r="C251" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="E251">
+        <v>203</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>18</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252">
+        <v>1801</v>
+      </c>
+      <c r="C252" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="E252">
+        <v>208</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>18</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253">
+        <v>1802</v>
+      </c>
+      <c r="C253" s="3">
+        <v>40000000000</v>
+      </c>
+      <c r="E253">
+        <v>212</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>18</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254">
+        <v>1803</v>
+      </c>
+      <c r="C254" s="3">
+        <v>80000000000</v>
+      </c>
+      <c r="E254">
+        <v>217</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>18</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="A255">
+        <v>1804</v>
+      </c>
+      <c r="C255" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="E255">
+        <v>222</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>5</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>18</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256">
+        <v>1805</v>
+      </c>
+      <c r="C256" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="E256">
+        <v>227</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>6</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>18</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="A257">
+        <v>1806</v>
+      </c>
+      <c r="C257" s="3">
+        <v>300000000000</v>
+      </c>
+      <c r="E257">
+        <v>231</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>7</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>18</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258">
+        <v>1807</v>
+      </c>
+      <c r="C258" s="3">
+        <v>400000000000</v>
+      </c>
+      <c r="E258">
+        <v>233</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>18</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259">
+        <v>1808</v>
+      </c>
+      <c r="C259" s="3">
+        <v>500000000000</v>
+      </c>
+      <c r="E259">
+        <v>241</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>9</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>18</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260">
+        <v>1809</v>
+      </c>
+      <c r="C260" s="3">
+        <v>600000000000</v>
+      </c>
+      <c r="E260">
+        <v>245</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>10</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>18</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263">
+        <v>1900</v>
+      </c>
+      <c r="C263" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="E263">
+        <v>204</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>10</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>19</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="A264">
+        <v>1901</v>
+      </c>
+      <c r="C264" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="E264">
+        <v>209</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>12</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>19</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="A265">
+        <v>1902</v>
+      </c>
+      <c r="C265" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="E265">
+        <v>213</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>15</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>19</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266">
+        <v>1903</v>
+      </c>
+      <c r="C266" s="3">
+        <v>75000000000</v>
+      </c>
+      <c r="E266">
+        <v>220</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>20</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>19</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="A267">
+        <v>1904</v>
+      </c>
+      <c r="C267" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="E267">
+        <v>230</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>25</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>19</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="A269" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270">
+        <v>2000</v>
+      </c>
+      <c r="C270" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="E270">
+        <v>209</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>10</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>20</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271">
+        <v>2001</v>
+      </c>
+      <c r="C271" s="3">
+        <v>25000000000</v>
+      </c>
+      <c r="E271">
+        <v>248</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>12</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>20</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272">
+        <v>2002</v>
+      </c>
+      <c r="C272" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="E272">
+        <v>224</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>15</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>20</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273">
+        <v>2003</v>
+      </c>
+      <c r="C273" s="3">
+        <v>75000000000</v>
+      </c>
+      <c r="E273">
+        <v>229</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>20</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>20</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274">
         <v>2004</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C274" s="3">
         <v>100000000000</v>
       </c>
-      <c r="E242">
+      <c r="E274">
         <v>234</v>
       </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>0</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="J242">
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
         <v>25</v>
       </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="L242">
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
         <v>20</v>
       </c>
-      <c r="M242">
+      <c r="M274">
         <v>0</v>
       </c>
     </row>

--- a/trunk/php/#docs/WarQuest buildings.xlsx
+++ b/trunk/php/#docs/WarQuest buildings.xlsx
@@ -702,25 +702,25 @@
     <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Kop 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,9 +728,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,7 +768,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -838,7 +838,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
